--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
@@ -43,10 +43,10 @@
     <t>Err</t>
   </si>
   <si>
-    <t>LR: IC</t>
-  </si>
-  <si>
-    <t>LR: IC+Dem</t>
+    <t>LR: FC</t>
+  </si>
+  <si>
+    <t>LR: FC+Dem</t>
   </si>
   <si>
     <t>LR: CK</t>
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7620469798657717</v>
+        <v>0.7622664988814321</v>
       </c>
       <c r="C4">
-        <v>0.006078814461085713</v>
+        <v>0.00571083980243281</v>
       </c>
       <c r="D4">
-        <v>0.4444655412232927</v>
+        <v>0.4420211336976456</v>
       </c>
       <c r="E4">
-        <v>0.00337639889254604</v>
+        <v>0.003265324130573899</v>
       </c>
       <c r="F4">
-        <v>0.9691666666666667</v>
+        <v>0.969375</v>
       </c>
       <c r="G4">
-        <v>0.006528954305964341</v>
+        <v>0.007580428247168758</v>
       </c>
       <c r="H4">
-        <v>0.2886948844079341</v>
+        <v>0.2866916558684453</v>
       </c>
       <c r="I4">
-        <v>0.003016661124379927</v>
+        <v>0.00298718690717259</v>
       </c>
       <c r="J4">
-        <v>0.9646936382772608</v>
+        <v>0.9655931488795514</v>
       </c>
       <c r="K4">
-        <v>0.006480353260400196</v>
+        <v>0.006696639832193374</v>
       </c>
       <c r="L4">
-        <v>0.2271812080536913</v>
+        <v>0.2190604026845638</v>
       </c>
       <c r="M4">
-        <v>0.01378793593417871</v>
+        <v>0.0149870940867613</v>
       </c>
       <c r="N4">
-        <v>0.4079695431472081</v>
+        <v>0.4018781725888324</v>
       </c>
       <c r="O4">
-        <v>0.009466576231587698</v>
+        <v>0.01006408085188343</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7827041387024607</v>
+        <v>0.7783724832214765</v>
       </c>
       <c r="C5">
-        <v>0.005838929863713926</v>
+        <v>0.006340135465399022</v>
       </c>
       <c r="D5">
-        <v>0.4751366442300984</v>
+        <v>0.4706565432503763</v>
       </c>
       <c r="E5">
-        <v>0.003126759848461003</v>
+        <v>0.003108279666895919</v>
       </c>
       <c r="F5">
-        <v>0.9477083333333336</v>
+        <v>0.9583333333333335</v>
       </c>
       <c r="G5">
-        <v>0.007849795563174444</v>
+        <v>0.00721994338992582</v>
       </c>
       <c r="H5">
-        <v>0.3175425278960793</v>
+        <v>0.3123813715712669</v>
       </c>
       <c r="I5">
-        <v>0.003133191888690101</v>
+        <v>0.003076704860970558</v>
       </c>
       <c r="J5">
-        <v>0.9573011527232319</v>
+        <v>0.9637304445809973</v>
       </c>
       <c r="K5">
-        <v>0.005475534915862612</v>
+        <v>0.005256485455090942</v>
       </c>
       <c r="L5">
-        <v>0.3405369127516779</v>
+        <v>0.3170469798657719</v>
       </c>
       <c r="M5">
-        <v>0.01303357816159095</v>
+        <v>0.01311236688721185</v>
       </c>
       <c r="N5">
-        <v>0.488477157360406</v>
+        <v>0.4732994923857868</v>
       </c>
       <c r="O5">
-        <v>0.008445024306966531</v>
+        <v>0.008625431306240772</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8273315118397087</v>
+        <v>0.8232149362477234</v>
       </c>
       <c r="C6">
-        <v>0.008082544013940596</v>
+        <v>0.00927433688557322</v>
       </c>
       <c r="D6">
-        <v>0.5222443371322274</v>
+        <v>0.5251513904674898</v>
       </c>
       <c r="E6">
-        <v>0.007179272099788525</v>
+        <v>0.007946008401470195</v>
       </c>
       <c r="F6">
-        <v>0.9133333333333333</v>
+        <v>0.9177777777777777</v>
       </c>
       <c r="G6">
-        <v>0.01725759416688355</v>
+        <v>0.01609159566787699</v>
       </c>
       <c r="H6">
-        <v>0.3675460329855113</v>
+        <v>0.3694472248057948</v>
       </c>
       <c r="I6">
-        <v>0.006480993946346381</v>
+        <v>0.007109896869198606</v>
       </c>
       <c r="J6">
-        <v>0.9584283387035931</v>
+        <v>0.9597837337955889</v>
       </c>
       <c r="K6">
-        <v>0.007608804207963726</v>
+        <v>0.007284028606091009</v>
       </c>
       <c r="L6">
-        <v>0.530327868852459</v>
+        <v>0.5318032786885245</v>
       </c>
       <c r="M6">
-        <v>0.01605158086337266</v>
+        <v>0.01556442200690955</v>
       </c>
       <c r="N6">
-        <v>0.6175949367088609</v>
+        <v>0.6197468354430379</v>
       </c>
       <c r="O6">
-        <v>0.01062792826579328</v>
+        <v>0.01086291039841369</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.85183970856102</v>
+        <v>0.8471220400728597</v>
       </c>
       <c r="C7">
-        <v>0.00828726862494189</v>
+        <v>0.007185958631370393</v>
       </c>
       <c r="D7">
-        <v>0.544148633704829</v>
+        <v>0.5458193405140919</v>
       </c>
       <c r="E7">
-        <v>0.008408824264409809</v>
+        <v>0.007008721129125317</v>
       </c>
       <c r="F7">
-        <v>0.921111111111111</v>
+        <v>0.9055555555555557</v>
       </c>
       <c r="G7">
-        <v>0.0160686959897488</v>
+        <v>0.01609312115450579</v>
       </c>
       <c r="H7">
-        <v>0.3877212865816809</v>
+        <v>0.3928954078713098</v>
       </c>
       <c r="I7">
-        <v>0.007470486645421603</v>
+        <v>0.007009192711710743</v>
       </c>
       <c r="J7">
-        <v>0.9631932133737032</v>
+        <v>0.9578629809871667</v>
       </c>
       <c r="K7">
-        <v>0.007251951220270114</v>
+        <v>0.006603537672688398</v>
       </c>
       <c r="L7">
-        <v>0.5654098360655737</v>
+        <v>0.580655737704918</v>
       </c>
       <c r="M7">
-        <v>0.01437330121188141</v>
+        <v>0.01561830130719122</v>
       </c>
       <c r="N7">
-        <v>0.6464556962025315</v>
+        <v>0.6546835443037975</v>
       </c>
       <c r="O7">
-        <v>0.01034820485571142</v>
+        <v>0.01017949196857815</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8023692033293698</v>
+        <v>0.8091290130796671</v>
       </c>
       <c r="C8">
-        <v>0.006876152452078954</v>
+        <v>0.006949979917863836</v>
       </c>
       <c r="D8">
-        <v>0.4499720848545641</v>
+        <v>0.4491806821791784</v>
       </c>
       <c r="E8">
-        <v>0.005763645885313251</v>
+        <v>0.005766874584053006</v>
       </c>
       <c r="F8">
-        <v>0.9189655172413793</v>
+        <v>0.939310344827586</v>
       </c>
       <c r="G8">
-        <v>0.01485647319398431</v>
+        <v>0.01113584118265398</v>
       </c>
       <c r="H8">
-        <v>0.2997933603842972</v>
+        <v>0.2964842809514345</v>
       </c>
       <c r="I8">
-        <v>0.005716858361525579</v>
+        <v>0.005552712523626879</v>
       </c>
       <c r="J8">
-        <v>0.9630962804690726</v>
+        <v>0.9708016113755517</v>
       </c>
       <c r="K8">
-        <v>0.005551832448178917</v>
+        <v>0.004989340780625406</v>
       </c>
       <c r="L8">
-        <v>0.4527586206896551</v>
+        <v>0.4333620689655173</v>
       </c>
       <c r="M8">
-        <v>0.02144528203646701</v>
+        <v>0.01948920068155791</v>
       </c>
       <c r="N8">
-        <v>0.546</v>
+        <v>0.534551724137931</v>
       </c>
       <c r="O8">
-        <v>0.01489802276630536</v>
+        <v>0.01394643678885887</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8149375743162901</v>
+        <v>0.8136385255648038</v>
       </c>
       <c r="C9">
-        <v>0.007006756087601596</v>
+        <v>0.006906029580700079</v>
       </c>
       <c r="D9">
-        <v>0.4808514454821228</v>
+        <v>0.4830337590236718</v>
       </c>
       <c r="E9">
-        <v>0.006603881629339892</v>
+        <v>0.007001957962485039</v>
       </c>
       <c r="F9">
-        <v>0.9075862068965518</v>
+        <v>0.9017241379310346</v>
       </c>
       <c r="G9">
-        <v>0.01468052759072946</v>
+        <v>0.01510896452825083</v>
       </c>
       <c r="H9">
-        <v>0.3294568954010348</v>
+        <v>0.3322250491280627</v>
       </c>
       <c r="I9">
-        <v>0.006865738841998481</v>
+        <v>0.006995603216468693</v>
       </c>
       <c r="J9">
-        <v>0.9620505855967706</v>
+        <v>0.9602798961954343</v>
       </c>
       <c r="K9">
-        <v>0.005152948689048809</v>
+        <v>0.005373701382891061</v>
       </c>
       <c r="L9">
-        <v>0.5270689655172414</v>
+        <v>0.5358620689655172</v>
       </c>
       <c r="M9">
-        <v>0.02038481841411899</v>
+        <v>0.02067661271180143</v>
       </c>
       <c r="N9">
-        <v>0.6031724137931034</v>
+        <v>0.6090344827586207</v>
       </c>
       <c r="O9">
-        <v>0.01426547642877529</v>
+        <v>0.01457150049115774</v>
       </c>
     </row>
   </sheetData>

--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7622664988814321</v>
+        <v>0.7325177383592018</v>
       </c>
       <c r="C4">
-        <v>0.00571083980243281</v>
+        <v>0.006478399576184901</v>
       </c>
       <c r="D4">
-        <v>0.4420211336976456</v>
+        <v>0.4315011794651151</v>
       </c>
       <c r="E4">
-        <v>0.003265324130573899</v>
+        <v>0.001755465697543923</v>
       </c>
       <c r="F4">
-        <v>0.969375</v>
+        <v>0.9801818181818183</v>
       </c>
       <c r="G4">
-        <v>0.007580428247168758</v>
+        <v>0.00525672059303961</v>
       </c>
       <c r="H4">
-        <v>0.2866916558684453</v>
+        <v>0.2767877632733385</v>
       </c>
       <c r="I4">
-        <v>0.00298718690717259</v>
+        <v>0.001622079027395751</v>
       </c>
       <c r="J4">
-        <v>0.9655931488795514</v>
+        <v>0.9641488659429589</v>
       </c>
       <c r="K4">
-        <v>0.006696639832193374</v>
+        <v>0.00846386243471875</v>
       </c>
       <c r="L4">
-        <v>0.2190604026845638</v>
+        <v>0.1396951219512195</v>
       </c>
       <c r="M4">
-        <v>0.0149870940867613</v>
+        <v>0.00952837004736673</v>
       </c>
       <c r="N4">
-        <v>0.4018781725888324</v>
+        <v>0.3507762557077626</v>
       </c>
       <c r="O4">
-        <v>0.01006408085188343</v>
+        <v>0.006163057400419281</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7783724832214765</v>
+        <v>0.7673004434589801</v>
       </c>
       <c r="C5">
-        <v>0.006340135465399022</v>
+        <v>0.005212210863563382</v>
       </c>
       <c r="D5">
-        <v>0.4706565432503763</v>
+        <v>0.4671176881942593</v>
       </c>
       <c r="E5">
-        <v>0.003108279666895919</v>
+        <v>0.002479441305679064</v>
       </c>
       <c r="F5">
-        <v>0.9583333333333335</v>
+        <v>0.9545454545454547</v>
       </c>
       <c r="G5">
-        <v>0.00721994338992582</v>
+        <v>0.007785012809012337</v>
       </c>
       <c r="H5">
-        <v>0.3123813715712669</v>
+        <v>0.3095732823387262</v>
       </c>
       <c r="I5">
-        <v>0.003076704860970558</v>
+        <v>0.002406791524757979</v>
       </c>
       <c r="J5">
-        <v>0.9637304445809973</v>
+        <v>0.9543926823483773</v>
       </c>
       <c r="K5">
-        <v>0.005256485455090942</v>
+        <v>0.006356852937005719</v>
       </c>
       <c r="L5">
-        <v>0.3170469798657719</v>
+        <v>0.283780487804878</v>
       </c>
       <c r="M5">
-        <v>0.01311236688721185</v>
+        <v>0.01164607598523237</v>
       </c>
       <c r="N5">
-        <v>0.4732994923857868</v>
+        <v>0.4522374429223744</v>
       </c>
       <c r="O5">
-        <v>0.008625431306240772</v>
+        <v>0.007300623841702769</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8232149362477234</v>
+        <v>0.83567977915804</v>
       </c>
       <c r="C6">
-        <v>0.00927433688557322</v>
+        <v>0.007793945999260976</v>
       </c>
       <c r="D6">
-        <v>0.5251513904674898</v>
+        <v>0.5250250989326658</v>
       </c>
       <c r="E6">
-        <v>0.007946008401470195</v>
+        <v>0.008212671958299556</v>
       </c>
       <c r="F6">
-        <v>0.9177777777777777</v>
+        <v>0.9247619047619047</v>
       </c>
       <c r="G6">
-        <v>0.01609159566787699</v>
+        <v>0.01514525785128629</v>
       </c>
       <c r="H6">
-        <v>0.3694472248057948</v>
+        <v>0.3692665078119153</v>
       </c>
       <c r="I6">
-        <v>0.007109896869198606</v>
+        <v>0.008315072016905123</v>
       </c>
       <c r="J6">
-        <v>0.9597837337955889</v>
+        <v>0.9628164055766899</v>
       </c>
       <c r="K6">
-        <v>0.007284028606091009</v>
+        <v>0.007151710959506397</v>
       </c>
       <c r="L6">
-        <v>0.5318032786885245</v>
+        <v>0.5066666666666666</v>
       </c>
       <c r="M6">
-        <v>0.01556442200690955</v>
+        <v>0.02254298175296976</v>
       </c>
       <c r="N6">
-        <v>0.6197468354430379</v>
+        <v>0.6042222222222222</v>
       </c>
       <c r="O6">
-        <v>0.01086291039841369</v>
+        <v>0.01529307677245451</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8471220400728597</v>
+        <v>0.8576673567977916</v>
       </c>
       <c r="C7">
-        <v>0.007185958631370393</v>
+        <v>0.006617036018294886</v>
       </c>
       <c r="D7">
-        <v>0.5458193405140919</v>
+        <v>0.5507492714816649</v>
       </c>
       <c r="E7">
-        <v>0.007008721129125317</v>
+        <v>0.006805340760008494</v>
       </c>
       <c r="F7">
-        <v>0.9055555555555557</v>
+        <v>0.918095238095238</v>
       </c>
       <c r="G7">
-        <v>0.01609312115450579</v>
+        <v>0.01683168937201118</v>
       </c>
       <c r="H7">
-        <v>0.3928954078713098</v>
+        <v>0.3962184702836501</v>
       </c>
       <c r="I7">
-        <v>0.007009192711710743</v>
+        <v>0.00748835668148895</v>
       </c>
       <c r="J7">
-        <v>0.9578629809871667</v>
+        <v>0.9624131109985483</v>
       </c>
       <c r="K7">
-        <v>0.006603537672688398</v>
+        <v>0.006876284837495472</v>
       </c>
       <c r="L7">
-        <v>0.580655737704918</v>
+        <v>0.566231884057971</v>
       </c>
       <c r="M7">
-        <v>0.01561830130719122</v>
+        <v>0.01693278418295274</v>
       </c>
       <c r="N7">
-        <v>0.6546835443037975</v>
+        <v>0.6483333333333334</v>
       </c>
       <c r="O7">
-        <v>0.01017949196857815</v>
+        <v>0.0106375339865854</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8091290130796671</v>
+        <v>0.7966613051470588</v>
       </c>
       <c r="C8">
-        <v>0.006949979917863836</v>
+        <v>0.006388648060966395</v>
       </c>
       <c r="D8">
-        <v>0.4491806821791784</v>
+        <v>0.4621380411137784</v>
       </c>
       <c r="E8">
-        <v>0.005766874584053006</v>
+        <v>0.004695493118074712</v>
       </c>
       <c r="F8">
-        <v>0.939310344827586</v>
+        <v>0.9341176470588235</v>
       </c>
       <c r="G8">
-        <v>0.01113584118265398</v>
+        <v>0.01152713197434097</v>
       </c>
       <c r="H8">
-        <v>0.2964842809514345</v>
+        <v>0.3079632874883172</v>
       </c>
       <c r="I8">
-        <v>0.005552712523626879</v>
+        <v>0.004434373912013456</v>
       </c>
       <c r="J8">
-        <v>0.9708016113755517</v>
+        <v>0.9652295834684941</v>
       </c>
       <c r="K8">
-        <v>0.004989340780625406</v>
+        <v>0.005352841509246087</v>
       </c>
       <c r="L8">
-        <v>0.4333620689655173</v>
+        <v>0.436953125</v>
       </c>
       <c r="M8">
-        <v>0.01948920068155791</v>
+        <v>0.0154989623233513</v>
       </c>
       <c r="N8">
-        <v>0.534551724137931</v>
+        <v>0.5412962962962963</v>
       </c>
       <c r="O8">
-        <v>0.01394643678885887</v>
+        <v>0.01066882765451294</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8136385255648038</v>
+        <v>0.8125321691176469</v>
       </c>
       <c r="C9">
-        <v>0.006906029580700079</v>
+        <v>0.006062816194807863</v>
       </c>
       <c r="D9">
-        <v>0.4830337590236718</v>
+        <v>0.495325038083708</v>
       </c>
       <c r="E9">
-        <v>0.007001957962485039</v>
+        <v>0.005854153958632147</v>
       </c>
       <c r="F9">
-        <v>0.9017241379310346</v>
+        <v>0.9123529411764706</v>
       </c>
       <c r="G9">
-        <v>0.01510896452825083</v>
+        <v>0.01458051363896185</v>
       </c>
       <c r="H9">
-        <v>0.3322250491280627</v>
+        <v>0.3419402305631402</v>
       </c>
       <c r="I9">
-        <v>0.006995603216468693</v>
+        <v>0.006158720759273484</v>
       </c>
       <c r="J9">
-        <v>0.9602798961954343</v>
+        <v>0.9614857452993272</v>
       </c>
       <c r="K9">
-        <v>0.005373701382891061</v>
+        <v>0.005680508959694408</v>
       </c>
       <c r="L9">
-        <v>0.5358620689655172</v>
+        <v>0.525625</v>
       </c>
       <c r="M9">
-        <v>0.02067661271180143</v>
+        <v>0.01741745225434188</v>
       </c>
       <c r="N9">
-        <v>0.6090344827586207</v>
+        <v>0.6067901234567903</v>
       </c>
       <c r="O9">
-        <v>0.01457150049115774</v>
+        <v>0.01174359596106711</v>
       </c>
     </row>
   </sheetData>
